--- a/analysis/Main Benchmark.xlsx
+++ b/analysis/Main Benchmark.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="18920" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="33600" windowHeight="18800" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="22">
   <si>
     <t>LABELLED DESIGN</t>
   </si>
@@ -94,6 +94,9 @@
   </si>
   <si>
     <t>Chunked, compressed, encrypted</t>
+  </si>
+  <si>
+    <t>Deserialise, decrypt &amp; decompress</t>
   </si>
 </sst>
 </file>
@@ -371,41 +374,121 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.0"/>
+                  <c:y val="-0.00813175074075972"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Graphs!$A$3:$B$8</c15:sqref>
-                  </c15:fullRef>
-                  <c15:levelRef>
-                    <c15:sqref>Graphs!$B$3:$B$8</c15:sqref>
-                  </c15:levelRef>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
-              <c:f>Graphs!$B$3:$B$8</c:f>
-              <c:strCache>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inBase"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Graphs!$A$3:$B$8</c:f>
+              <c:multiLvlStrCache>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>HyperDex</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>S3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Cassandra</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>HyperDex</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>S3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Cassandra</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>HyperDex</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>S3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Cassandra</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>HyperDex</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>S3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Cassandra</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Baseline</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Labelled Design</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -444,7 +527,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Deserialise, decrypt &amp; Decompress</c:v>
+                  <c:v>Deserialise, decrypt &amp; decompress</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -460,40 +543,40 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Graphs!$A$3:$B$8</c15:sqref>
-                  </c15:fullRef>
-                  <c15:levelRef>
-                    <c15:sqref>Graphs!$B$3:$B$8</c15:sqref>
-                  </c15:levelRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Graphs!$B$3:$B$8</c:f>
-              <c:strCache>
+            <c:multiLvlStrRef>
+              <c:f>Graphs!$A$3:$B$8</c:f>
+              <c:multiLvlStrCache>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>HyperDex</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>S3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Cassandra</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>HyperDex</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>S3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Cassandra</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>HyperDex</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>S3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Cassandra</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>HyperDex</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>S3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Cassandra</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Baseline</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Labelled Design</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -548,40 +631,40 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Graphs!$A$3:$B$8</c15:sqref>
-                  </c15:fullRef>
-                  <c15:levelRef>
-                    <c15:sqref>Graphs!$B$3:$B$8</c15:sqref>
-                  </c15:levelRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Graphs!$B$3:$B$8</c:f>
-              <c:strCache>
+            <c:multiLvlStrRef>
+              <c:f>Graphs!$A$3:$B$8</c:f>
+              <c:multiLvlStrCache>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>HyperDex</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>S3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Cassandra</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>HyperDex</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>S3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Cassandra</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>HyperDex</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>S3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Cassandra</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>HyperDex</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>S3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Cassandra</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Baseline</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Labelled Design</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -621,11 +704,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-2048408768"/>
-        <c:axId val="-2048522592"/>
+        <c:axId val="129021440"/>
+        <c:axId val="88890928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2048408768"/>
+        <c:axId val="129021440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -668,7 +751,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2048522592"/>
+        <c:crossAx val="88890928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -676,7 +759,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2048522592"/>
+        <c:axId val="88890928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000.0"/>
@@ -697,6 +780,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>, ms</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -727,7 +871,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2048408768"/>
+        <c:crossAx val="129021440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -909,41 +1053,175 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout/>
+              <c:dLblPos val="inBase"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Graphs!$A$12:$B$17</c15:sqref>
-                  </c15:fullRef>
-                  <c15:levelRef>
-                    <c15:sqref>Graphs!$B$12:$B$17</c15:sqref>
-                  </c15:levelRef>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
-              <c:f>Graphs!$B$12:$B$17</c:f>
-              <c:strCache>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="8.69555118090135E-17"/>
+                  <c:y val="-0.0260014392922696"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.73911023618027E-16"/>
+                  <c:y val="-0.0433357321537825"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.0"/>
+                  <c:y val="-0.0433357321537825"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Graphs!$A$12:$B$17</c:f>
+              <c:multiLvlStrCache>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>HyperDex</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>S3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Cassandra</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>HyperDex</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>S3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Cassandra</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>HyperDex</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>S3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Cassandra</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>HyperDex</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>S3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Cassandra</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Baseline</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Labelled Design</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -982,7 +1260,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Deserialise, decrypt &amp; Decompress</c:v>
+                  <c:v>Deserialise, decrypt &amp; decompress</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -998,40 +1276,40 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Graphs!$A$12:$B$17</c15:sqref>
-                  </c15:fullRef>
-                  <c15:levelRef>
-                    <c15:sqref>Graphs!$B$12:$B$17</c15:sqref>
-                  </c15:levelRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Graphs!$B$12:$B$17</c:f>
-              <c:strCache>
+            <c:multiLvlStrRef>
+              <c:f>Graphs!$A$12:$B$17</c:f>
+              <c:multiLvlStrCache>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>HyperDex</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>S3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Cassandra</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>HyperDex</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>S3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Cassandra</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>HyperDex</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>S3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Cassandra</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>HyperDex</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>S3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Cassandra</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Baseline</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Labelled Design</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1086,40 +1364,40 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Graphs!$A$12:$B$17</c15:sqref>
-                  </c15:fullRef>
-                  <c15:levelRef>
-                    <c15:sqref>Graphs!$B$12:$B$17</c15:sqref>
-                  </c15:levelRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Graphs!$B$12:$B$17</c:f>
-              <c:strCache>
+            <c:multiLvlStrRef>
+              <c:f>Graphs!$A$12:$B$17</c:f>
+              <c:multiLvlStrCache>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>HyperDex</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>S3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Cassandra</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>HyperDex</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>S3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Cassandra</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>HyperDex</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>S3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Cassandra</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>HyperDex</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>S3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Cassandra</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Baseline</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Labelled Design</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1159,11 +1437,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1631080480"/>
-        <c:axId val="-1631079952"/>
+        <c:axId val="88957536"/>
+        <c:axId val="88960288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1631080480"/>
+        <c:axId val="88957536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1206,7 +1484,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1631079952"/>
+        <c:crossAx val="88960288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1214,7 +1492,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1631079952"/>
+        <c:axId val="88960288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000.0"/>
@@ -1235,6 +1513,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time, ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1265,7 +1599,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1631080480"/>
+        <c:crossAx val="88957536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1454,41 +1788,149 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.0"/>
+                  <c:y val="-0.0360057596967045"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Graphs!$A$21:$B$26</c15:sqref>
-                  </c15:fullRef>
-                  <c15:levelRef>
-                    <c15:sqref>Graphs!$B$21:$B$26</c15:sqref>
-                  </c15:levelRef>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
                 </c:ext>
               </c:extLst>
-              <c:f>Graphs!$B$21:$B$26</c:f>
-              <c:strCache>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.73911056093402E-16"/>
+                  <c:y val="-0.0448468941382327"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.0"/>
+                  <c:y val="-0.0429582239720034"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inBase"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Graphs!$A$21:$B$26</c:f>
+              <c:multiLvlStrCache>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>HyperDex</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>S3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Cassandra</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>HyperDex</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>S3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Cassandra</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>HyperDex</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>S3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Cassandra</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>HyperDex</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>S3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Cassandra</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Baseline</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Labelled Design</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1527,7 +1969,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Deserialise, decrypt &amp; Decompress</c:v>
+                  <c:v>Deserialise, decrypt &amp; decompress</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1543,40 +1985,40 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Graphs!$A$21:$B$26</c15:sqref>
-                  </c15:fullRef>
-                  <c15:levelRef>
-                    <c15:sqref>Graphs!$B$21:$B$26</c15:sqref>
-                  </c15:levelRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Graphs!$B$21:$B$26</c:f>
-              <c:strCache>
+            <c:multiLvlStrRef>
+              <c:f>Graphs!$A$21:$B$26</c:f>
+              <c:multiLvlStrCache>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>HyperDex</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>S3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Cassandra</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>HyperDex</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>S3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Cassandra</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>HyperDex</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>S3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Cassandra</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>HyperDex</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>S3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Cassandra</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Baseline</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Labelled Design</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1631,40 +2073,40 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Graphs!$A$21:$B$26</c15:sqref>
-                  </c15:fullRef>
-                  <c15:levelRef>
-                    <c15:sqref>Graphs!$B$21:$B$26</c15:sqref>
-                  </c15:levelRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Graphs!$B$21:$B$26</c:f>
-              <c:strCache>
+            <c:multiLvlStrRef>
+              <c:f>Graphs!$A$21:$B$26</c:f>
+              <c:multiLvlStrCache>
                 <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>HyperDex</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>S3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Cassandra</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>HyperDex</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>S3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Cassandra</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>HyperDex</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>S3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Cassandra</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>HyperDex</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>S3</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Cassandra</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Baseline</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Labelled Design</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -1704,11 +2146,11 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:overlap val="100"/>
-        <c:axId val="-1604676208"/>
-        <c:axId val="-2048543456"/>
+        <c:axId val="88988496"/>
+        <c:axId val="88991248"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1604676208"/>
+        <c:axId val="88988496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1751,7 +2193,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2048543456"/>
+        <c:crossAx val="88991248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1759,7 +2201,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2048543456"/>
+        <c:axId val="88991248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1000.0"/>
@@ -1780,6 +2222,62 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time, ms</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1810,7 +2308,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1604676208"/>
+        <c:crossAx val="88988496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3562,14 +4060,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>351692</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>32726</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>73269</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>773398</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>113974</xdr:rowOff>
+      <xdr:rowOff>146538</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3592,14 +4090,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>367975</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>16282</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>789680</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>154517</xdr:rowOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>89552</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3975,7 +4473,7 @@
         <v>2.8291920000000004</v>
       </c>
       <c r="L2" s="2">
-        <f t="shared" ref="L2:N2" si="0">AVERAGE(D2,D22,D42)</f>
+        <f t="shared" ref="L2:M2" si="0">AVERAGE(D2,D22,D42)</f>
         <v>2911.6015636666666</v>
       </c>
       <c r="M2" s="2">
@@ -4020,7 +4518,7 @@
         <v>9</v>
       </c>
       <c r="K3" s="2">
-        <f t="shared" ref="K3:K10" si="1">AVERAGE(C3,C23,C43)</f>
+        <f t="shared" ref="K3:K9" si="1">AVERAGE(C3,C23,C43)</f>
         <v>57.344158333333333</v>
       </c>
       <c r="L3" s="2">
@@ -4446,7 +4944,7 @@
         <v>9</v>
       </c>
       <c r="K12" s="2">
-        <f t="shared" ref="K12:K19" si="7">AVERAGE(C13, C33,C53)</f>
+        <f t="shared" ref="K12:K18" si="7">AVERAGE(C13, C33,C53)</f>
         <v>57.510542666666673</v>
       </c>
       <c r="L12" s="2">
@@ -5586,8 +6084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="156" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="G21" zoomScale="156" workbookViewId="0">
+      <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5611,7 +6109,7 @@
         <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>7</v>
@@ -5769,7 +6267,7 @@
         <v>5</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>7</v>
@@ -5779,7 +6277,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="6" t="s">
@@ -5802,9 +6300,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="A13" s="10"/>
       <c r="B13" s="6" t="s">
         <v>10</v>
       </c>
@@ -5825,9 +6321,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="A14" s="10"/>
       <c r="B14" s="6" t="s">
         <v>11</v>
       </c>
@@ -5848,7 +6342,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -5871,9 +6365,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="A16" s="11"/>
       <c r="B16" s="4" t="s">
         <v>10</v>
       </c>
@@ -5894,9 +6386,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="A17" s="11"/>
       <c r="B17" s="4" t="s">
         <v>11</v>
       </c>
@@ -5935,7 +6425,7 @@
         <v>5</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>7</v>
@@ -5945,7 +6435,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B21" s="6" t="s">
@@ -5968,9 +6458,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="A22" s="10"/>
       <c r="B22" s="6" t="s">
         <v>10</v>
       </c>
@@ -5991,9 +6479,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="A23" s="10"/>
       <c r="B23" s="6" t="s">
         <v>11</v>
       </c>
@@ -6014,7 +6500,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="11" t="s">
         <v>16</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -6037,9 +6523,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="A25" s="11"/>
       <c r="B25" s="4" t="s">
         <v>10</v>
       </c>
@@ -6060,9 +6544,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="A26" s="11"/>
       <c r="B26" s="4" t="s">
         <v>11</v>
       </c>
@@ -6084,9 +6566,13 @@
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="2">
+  <mergeCells count="6">
+    <mergeCell ref="A24:A26"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A21:A23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
